--- a/image/allergyintolerance.xlsx
+++ b/image/allergyintolerance.xlsx
@@ -1064,44 +1064,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.38671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="114.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="113.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/allergyintolerance.xlsx
+++ b/image/allergyintolerance.xlsx
@@ -855,7 +855,7 @@
     <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
   </si>
   <si>
-    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
+    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the note field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
     <t>text</t>

--- a/image/allergyintolerance.xlsx
+++ b/image/allergyintolerance.xlsx
@@ -855,7 +855,7 @@
     <t>Text description about the reaction as a whole, including details of the manifestation if required.</t>
   </si>
   <si>
-    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the comment field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
+    <t>Use the description to provide any details of a particular event of the occurred reaction such as circumstances, reaction specifics, what happened before/after. Information, related to the event, but not describing a particular care should be captured in the note field. For example: at the age of four, the patient was given penicillin for strep throat and subsequently developed severe hives.</t>
   </si>
   <si>
     <t>text</t>
@@ -1064,44 +1064,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.38671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="114.125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="113.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/allergyintolerance.xlsx
+++ b/image/allergyintolerance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="285">
   <si>
     <t>Path</t>
   </si>
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Represents the date and/or time of the last known occurrence of a reaction event.</t>
   </si>
   <si>
-    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the Comment element should be used.</t>
+    <t>This date may be replicated by one of the Onset of Reaction dates. Where a textual representation of the date of last occurrence is required e.g. 'In Childhood, '10 years ago' the AllergyIntolerance.note element should be used.</t>
   </si>
   <si>
     <t>outBoundRelationship[typeCode=SUBJ].target[classCode=OBS, moodCode=EVN, code &lt;= CommonClinicalObservationType, value &lt;= ObservationValue (Reaction Type)].effectiveTime</t>
@@ -752,10 +752,6 @@
   </si>
   <si>
     <t>AllergyIntolerance.reaction.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1064,44 +1060,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.38671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="113.6640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="114.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3935,13 +3931,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3992,7 +3988,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4007,7 +4003,7 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>42</v>
@@ -4018,7 +4014,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4047,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>97</v>
@@ -4100,7 +4096,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4115,7 +4111,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>42</v>
@@ -4126,11 +4122,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4152,10 +4148,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>97</v>
@@ -4210,7 +4206,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4236,7 +4232,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4262,13 +4258,13 @@
         <v>114</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4297,11 +4293,11 @@
         <v>164</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4333,7 +4329,7 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>42</v>
@@ -4344,11 +4340,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4370,13 +4366,13 @@
         <v>114</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4405,11 +4401,11 @@
         <v>164</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4426,7 +4422,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>49</v>
@@ -4447,16 +4443,16 @@
         <v>42</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4475,16 +4471,16 @@
         <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4534,7 +4530,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4549,7 +4545,7 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>42</v>
@@ -4560,7 +4556,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4586,10 +4582,10 @@
         <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4640,7 +4636,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4661,12 +4657,12 @@
         <v>42</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4692,13 +4688,13 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4727,11 +4723,11 @@
         <v>118</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4748,7 +4744,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4774,7 +4770,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4800,13 +4796,13 @@
         <v>114</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4835,11 +4831,11 @@
         <v>164</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>42</v>
       </c>
@@ -4856,7 +4852,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4871,7 +4867,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -4882,7 +4878,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4908,13 +4904,13 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4964,7 +4960,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
